--- a/REGULAR/CCT/BANICO, PILAR.xlsx
+++ b/REGULAR/CCT/BANICO, PILAR.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="298">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1041,6 +1041,12 @@
   </si>
   <si>
     <t>UT(0-0-16)</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1750,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K522" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K523" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2073,12 +2079,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M522"/>
+  <dimension ref="A2:M523"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A382" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A385" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="M387" sqref="M387"/>
+      <selection pane="bottomLeft" activeCell="E406" sqref="E406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,7 +2249,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>176.96599999999998</v>
+        <v>177.71599999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2253,7 +2259,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>243.30599999999998</v>
+        <v>245.05599999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10734,13 +10740,15 @@
         <v>45170</v>
       </c>
       <c r="B403" s="20"/>
-      <c r="C403" s="13"/>
+      <c r="C403" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D403" s="39"/>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G403" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H403" s="39"/>
       <c r="I403" s="9"/>
@@ -10751,59 +10759,76 @@
       <c r="A404" s="40">
         <v>45200</v>
       </c>
-      <c r="B404" s="20"/>
-      <c r="C404" s="13"/>
+      <c r="B404" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C404" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D404" s="39"/>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H404" s="39"/>
+      <c r="G404" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H404" s="39">
+        <v>1</v>
+      </c>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
-      <c r="K404" s="20"/>
+      <c r="K404" s="49">
+        <v>45212</v>
+      </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>45231</v>
       </c>
-      <c r="B405" s="20"/>
-      <c r="C405" s="13"/>
+      <c r="B405" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C405" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D405" s="39"/>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H405" s="39"/>
+      <c r="G405" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H405" s="39">
+        <v>1</v>
+      </c>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="20"/>
+      <c r="K405" s="49">
+        <v>45250</v>
+      </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B406" s="20"/>
+      <c r="A406" s="40"/>
+      <c r="B406" s="20" t="s">
+        <v>296</v>
+      </c>
       <c r="C406" s="13"/>
-      <c r="D406" s="39"/>
+      <c r="D406" s="39">
+        <v>3</v>
+      </c>
       <c r="E406" s="9"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G406" s="13"/>
       <c r="H406" s="39"/>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="20"/>
+      <c r="K406" s="49" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10821,7 +10846,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10839,7 +10864,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10857,7 +10882,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10875,7 +10900,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10893,7 +10918,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10911,7 +10936,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10929,7 +10954,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10947,7 +10972,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10965,7 +10990,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10983,7 +11008,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11001,7 +11026,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11019,7 +11044,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11037,7 +11062,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11055,7 +11080,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11073,7 +11098,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11091,7 +11116,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11109,7 +11134,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11127,7 +11152,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11145,7 +11170,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11163,7 +11188,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11181,7 +11206,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11199,7 +11224,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11217,7 +11242,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11235,7 +11260,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11253,7 +11278,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11271,7 +11296,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11289,7 +11314,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11307,7 +11332,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11325,7 +11350,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11343,7 +11368,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11361,7 +11386,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11379,7 +11404,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11397,7 +11422,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11415,7 +11440,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11433,7 +11458,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11451,7 +11476,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11469,7 +11494,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11487,7 +11512,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11505,7 +11530,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11523,7 +11548,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11541,7 +11566,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11559,7 +11584,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11577,7 +11602,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11595,7 +11620,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11613,7 +11638,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11631,7 +11656,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11649,7 +11674,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11667,7 +11692,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11685,7 +11710,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11703,7 +11728,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11721,7 +11746,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11739,7 +11764,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11757,7 +11782,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -11775,7 +11800,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -11793,7 +11818,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -11811,7 +11836,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -11829,7 +11854,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -11847,7 +11872,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -11865,7 +11890,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -11883,7 +11908,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -11901,7 +11926,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -11919,7 +11944,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -11937,7 +11962,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -11955,7 +11980,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -11973,7 +11998,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -11991,7 +12016,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12009,7 +12034,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12027,7 +12052,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12045,7 +12070,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12063,7 +12088,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12081,7 +12106,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12099,7 +12124,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12117,7 +12142,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12135,7 +12160,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12153,7 +12178,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12171,7 +12196,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12189,7 +12214,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12207,7 +12232,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12225,7 +12250,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12243,7 +12268,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12261,7 +12286,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12279,7 +12304,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12297,7 +12322,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12315,7 +12340,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12333,7 +12358,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12351,7 +12376,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -12369,7 +12394,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -12387,7 +12412,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -12405,7 +12430,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -12423,7 +12448,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -12441,7 +12466,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -12459,7 +12484,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -12477,7 +12502,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -12495,7 +12520,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -12513,7 +12538,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -12531,7 +12556,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -12549,7 +12574,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -12567,7 +12592,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -12585,7 +12610,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -12603,7 +12628,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -12621,7 +12646,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -12639,7 +12664,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -12657,7 +12682,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -12675,7 +12700,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -12693,7 +12718,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -12711,7 +12736,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -12729,7 +12754,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -12747,7 +12772,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -12765,7 +12790,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -12782,7 +12807,9 @@
       <c r="K516" s="20"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A517" s="40"/>
+      <c r="A517" s="40">
+        <v>48611</v>
+      </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
       <c r="D517" s="39"/>
@@ -12862,20 +12889,36 @@
       <c r="K521" s="20"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" s="41"/>
-      <c r="B522" s="15"/>
-      <c r="C522" s="42"/>
-      <c r="D522" s="43"/>
+      <c r="A522" s="40"/>
+      <c r="B522" s="20"/>
+      <c r="C522" s="13"/>
+      <c r="D522" s="39"/>
       <c r="E522" s="9"/>
-      <c r="F522" s="15"/>
+      <c r="F522" s="20"/>
       <c r="G522" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H522" s="43"/>
+      <c r="H522" s="39"/>
       <c r="I522" s="9"/>
-      <c r="J522" s="12"/>
-      <c r="K522" s="15"/>
+      <c r="J522" s="11"/>
+      <c r="K522" s="20"/>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A523" s="41"/>
+      <c r="B523" s="15"/>
+      <c r="C523" s="42"/>
+      <c r="D523" s="43"/>
+      <c r="E523" s="9"/>
+      <c r="F523" s="15"/>
+      <c r="G523" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H523" s="43"/>
+      <c r="I523" s="9"/>
+      <c r="J523" s="12"/>
+      <c r="K523" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
